--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos\VALENware\VALENtiny\User version\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E275AD-6EDA-4BB1-9C17-62A27BF8B5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331FD19B-8A29-484E-944C-E90EA2172FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13749" xr2:uid="{3956E45A-4E70-4CE3-A5B7-50E9F49972BA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>4X31R64405</t>
   </si>
@@ -66,6 +66,21 @@
   </si>
   <si>
     <t>4XD1P83425</t>
+  </si>
+  <si>
+    <t>ZC05</t>
+  </si>
+  <si>
+    <t>SI001</t>
+  </si>
+  <si>
+    <t>ZW06</t>
+  </si>
+  <si>
+    <t>ZC04</t>
+  </si>
+  <si>
+    <t>ZAGNG0301B</t>
   </si>
 </sst>
 </file>
@@ -438,16 +453,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D67E4E-5C27-4C36-A3AD-A33C877510EE}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="12.77734375" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>5272601306</v>
       </c>
@@ -457,8 +473,11 @@
       <c r="C1">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>5272593676</v>
       </c>
@@ -469,7 +488,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5272594026</v>
       </c>
@@ -480,7 +499,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>5272594026</v>
       </c>
@@ -491,7 +510,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5272594026</v>
       </c>
@@ -502,7 +521,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5272595673</v>
       </c>
@@ -512,8 +531,11 @@
       <c r="C6">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5272595667</v>
       </c>
@@ -524,7 +546,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5272595667</v>
       </c>
@@ -535,7 +557,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5272595667</v>
       </c>
@@ -546,7 +568,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5272595667</v>
       </c>
@@ -557,7 +579,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5272595667</v>
       </c>
@@ -568,7 +590,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>5272595673</v>
       </c>
@@ -578,8 +600,11 @@
       <c r="C12">
         <v>38</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>5272595673</v>
       </c>
@@ -589,8 +614,11 @@
       <c r="C13">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>5272595673</v>
       </c>
@@ -600,8 +628,11 @@
       <c r="C14">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>5272595673</v>
       </c>
@@ -611,8 +642,12 @@
       <c r="C15">
         <v>38</v>
       </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos\VALENware\VALENtiny\User version\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svictor3\Downloads\VALENtiny\VALENtiny_v0.1-REMADE_ALPHA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331FD19B-8A29-484E-944C-E90EA2172FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73A9A9A-DCD2-4627-A6E1-154DB31F8275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13749" xr2:uid="{3956E45A-4E70-4CE3-A5B7-50E9F49972BA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{3956E45A-4E70-4CE3-A5B7-50E9F49972BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,51 +36,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
-  <si>
-    <t>4X31R64405</t>
-  </si>
-  <si>
-    <t>4XF1K72399</t>
-  </si>
-  <si>
-    <t>13EJS01B00</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="22">
   <si>
     <t>63CFMAR1BR</t>
   </si>
   <si>
-    <t>4X30H56832</t>
-  </si>
-  <si>
-    <t>21NQA0K7BR</t>
-  </si>
-  <si>
-    <t>4Z91Q37956</t>
-  </si>
-  <si>
-    <t>4Y50R20863</t>
-  </si>
-  <si>
-    <t>4Y41R90027</t>
-  </si>
-  <si>
-    <t>4XD1P83425</t>
-  </si>
-  <si>
-    <t>ZC05</t>
-  </si>
-  <si>
-    <t>SI001</t>
-  </si>
-  <si>
     <t>ZW06</t>
   </si>
   <si>
-    <t>ZC04</t>
-  </si>
-  <si>
-    <t>ZAGNG0301B</t>
+    <t>21NQA07BBR</t>
+  </si>
+  <si>
+    <t>13E0S00400</t>
+  </si>
+  <si>
+    <t>MOUSE00</t>
+  </si>
+  <si>
+    <t>TECLA00</t>
+  </si>
+  <si>
+    <t>7D6MNCM3WW</t>
+  </si>
+  <si>
+    <t>0B50559</t>
+  </si>
+  <si>
+    <t>4Z51L42650</t>
+  </si>
+  <si>
+    <t>21NQA0K6BR</t>
+  </si>
+  <si>
+    <t>7D76CTO1WW</t>
+  </si>
+  <si>
+    <t>ZAGNG2306</t>
+  </si>
+  <si>
+    <t>ZAGNM0103</t>
+  </si>
+  <si>
+    <t>ZAGNA0902</t>
+  </si>
+  <si>
+    <t>ZAGNJ2204</t>
+  </si>
+  <si>
+    <t>VIRTUAIS</t>
+  </si>
+  <si>
+    <t>ZC06</t>
+  </si>
+  <si>
+    <t>ZW03</t>
+  </si>
+  <si>
+    <t>ZW07</t>
+  </si>
+  <si>
+    <t>ZW04</t>
+  </si>
+  <si>
+    <t>ZAGNW3203</t>
+  </si>
+  <si>
+    <t>ZAGNW3803</t>
   </si>
 </sst>
 </file>
@@ -116,9 +137,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,197 +473,394 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D67E4E-5C27-4C36-A3AD-A33C877510EE}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.77734375" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+    <col min="1" max="2" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
-        <v>5272601306</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>5272815362</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C1">
+        <v>96</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>5272815360</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C2">
+        <v>96</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>5272593676</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>5272594026</v>
+        <v>5272815181</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>5272594026</v>
+        <v>5272815181</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>5272594026</v>
+        <v>5272815155</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5272595673</v>
+        <v>5272815155</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6">
-        <v>38</v>
+        <v>201</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5272595667</v>
+        <v>5272815181</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7">
+        <v>150</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5272815181</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>150</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5272815384</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>200</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5272815384</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>200</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5272813554</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5272804613</v>
+      </c>
+      <c r="B12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>5272595667</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>5272595667</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>5272595667</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>5272595667</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>5272595673</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
       <c r="C12">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>5272595673</v>
+        <v>5272804613</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
       <c r="C13">
-        <v>38</v>
+        <v>184</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>5272595673</v>
+        <v>5272804613</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14">
-        <v>38</v>
+        <v>201</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>5272595673</v>
+        <v>5272815187</v>
       </c>
       <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>150</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>5272815362</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>5272815364</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>150</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>5272815187</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>150</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>5272816410</v>
+      </c>
+      <c r="B19" t="s">
         <v>9</v>
       </c>
-      <c r="C15">
-        <v>38</v>
-      </c>
-      <c r="D15" t="s">
-        <v>11</v>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>5272815364</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>140</v>
+      </c>
+      <c r="D20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>5272815364</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>5272815360</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>29</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>5272815155</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>5272815155</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>5272813581</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>5272815335</v>
+      </c>
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>30</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>5272815655</v>
+      </c>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>30</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svictor3\Downloads\VALENtiny\VALENtiny_v0.1-REMADE_ALPHA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73A9A9A-DCD2-4627-A6E1-154DB31F8275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFD480D4-03AB-4608-8DF5-6CAB473C7F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{3956E45A-4E70-4CE3-A5B7-50E9F49972BA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
   <si>
     <t>63CFMAR1BR</t>
   </si>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D67E4E-5C27-4C36-A3AD-A33C877510EE}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,58 +487,58 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>5272815362</v>
+        <v>5272804613</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C1">
-        <v>96</v>
+        <v>201</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>5272815360</v>
+        <v>5272804613</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>96</v>
+        <v>201</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>5272815181</v>
+        <v>5272813554</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
         <v>3</v>
       </c>
-      <c r="C3">
-        <v>90</v>
-      </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>5272815181</v>
+        <v>5272813581</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -571,16 +571,16 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5272815181</v>
+        <v>5272815155</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>150</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -588,38 +588,38 @@
         <v>5272815181</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>150</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>5272815384</v>
+        <v>5272815181</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>5272815384</v>
+        <v>5272815181</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="C10">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
@@ -627,83 +627,83 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>5272813554</v>
+        <v>5272815181</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>5272804613</v>
+        <v>5272815187</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
       <c r="C12">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>5272804613</v>
+        <v>5272815187</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>5272804613</v>
+        <v>5272815335</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>201</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>5272815187</v>
+        <v>5272815360</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>5272815362</v>
+        <v>5272815360</v>
       </c>
       <c r="B16" t="s">
         <v>2</v>
       </c>
       <c r="C16">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="D16" t="s">
         <v>16</v>
@@ -711,44 +711,44 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>5272815364</v>
+        <v>5272815362</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>5272815187</v>
+        <v>5272815362</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>5272816410</v>
+        <v>5272815364</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>150</v>
       </c>
       <c r="D19" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -759,7 +759,7 @@
         <v>8</v>
       </c>
       <c r="C20">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D20" t="s">
         <v>19</v>
@@ -767,100 +767,58 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>5272815364</v>
+        <v>5272815384</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C21">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>5272815360</v>
+        <v>5272815384</v>
       </c>
       <c r="B22" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C22">
-        <v>29</v>
+        <v>200</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>5272815155</v>
+        <v>5272815655</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>5272815155</v>
+        <v>5272816410</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C24">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>5272813581</v>
-      </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25">
         <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>5272815335</v>
-      </c>
-      <c r="B26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>30</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>5272815655</v>
-      </c>
-      <c r="B27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>30</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svictor3\Downloads\VALENtiny\VALENtiny_v0.1-REMADE_ALPHA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFD480D4-03AB-4608-8DF5-6CAB473C7F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D74FF62-BE81-4620-9F71-C63D64A28BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{3956E45A-4E70-4CE3-A5B7-50E9F49972BA}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
-  <si>
-    <t>63CFMAR1BR</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>ZW06</t>
   </si>
@@ -50,12 +47,6 @@
     <t>13E0S00400</t>
   </si>
   <si>
-    <t>MOUSE00</t>
-  </si>
-  <si>
-    <t>TECLA00</t>
-  </si>
-  <si>
     <t>7D6MNCM3WW</t>
   </si>
   <si>
@@ -71,21 +62,6 @@
     <t>7D76CTO1WW</t>
   </si>
   <si>
-    <t>ZAGNG2306</t>
-  </si>
-  <si>
-    <t>ZAGNM0103</t>
-  </si>
-  <si>
-    <t>ZAGNA0902</t>
-  </si>
-  <si>
-    <t>ZAGNJ2204</t>
-  </si>
-  <si>
-    <t>VIRTUAIS</t>
-  </si>
-  <si>
     <t>ZC06</t>
   </si>
   <si>
@@ -96,12 +72,6 @@
   </si>
   <si>
     <t>ZW04</t>
-  </si>
-  <si>
-    <t>ZAGNW3203</t>
-  </si>
-  <si>
-    <t>ZAGNW3803</t>
   </si>
 </sst>
 </file>
@@ -473,11 +443,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D67E4E-5C27-4C36-A3AD-A33C877510EE}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -490,13 +458,13 @@
         <v>5272804613</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1">
         <v>201</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -504,13 +472,13 @@
         <v>5272804613</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>201</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -518,13 +486,13 @@
         <v>5272813554</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -532,13 +500,13 @@
         <v>5272813581</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -546,279 +514,111 @@
         <v>5272815155</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>201</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5272815155</v>
+        <v>5272815187</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>201</v>
+        <v>150</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5272815155</v>
+        <v>5272815187</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>21</v>
+        <v>150</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>5272815181</v>
+        <v>5272815360</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>5272815181</v>
+        <v>5272815362</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>5272815181</v>
+        <v>5272815364</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10">
         <v>150</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>5272815181</v>
+        <v>5272815364</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11">
         <v>150</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>5272815187</v>
+        <v>5272816410</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>5272815187</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13">
-        <v>150</v>
-      </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>5272815335</v>
-      </c>
-      <c r="B14" t="s">
         <v>0</v>
-      </c>
-      <c r="C14">
-        <v>30</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>5272815360</v>
-      </c>
-      <c r="B15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>125</v>
-      </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>5272815360</v>
-      </c>
-      <c r="B16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>125</v>
-      </c>
-      <c r="D16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>5272815362</v>
-      </c>
-      <c r="B17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>126</v>
-      </c>
-      <c r="D17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>5272815362</v>
-      </c>
-      <c r="B18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <v>126</v>
-      </c>
-      <c r="D18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>5272815364</v>
-      </c>
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19">
-        <v>150</v>
-      </c>
-      <c r="D19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>5272815364</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20">
-        <v>150</v>
-      </c>
-      <c r="D20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>5272815384</v>
-      </c>
-      <c r="B21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21">
-        <v>200</v>
-      </c>
-      <c r="D21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>5272815384</v>
-      </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22">
-        <v>200</v>
-      </c>
-      <c r="D22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>5272815655</v>
-      </c>
-      <c r="B23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>30</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>5272816410</v>
-      </c>
-      <c r="B24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24">
-        <v>6</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svictor3\Downloads\VALENtiny\VALENtiny_v0.1-REMADE_ALPHA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos\VALENware\VALENtiny\User version\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D74FF62-BE81-4620-9F71-C63D64A28BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331FD19B-8A29-484E-944C-E90EA2172FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{3956E45A-4E70-4CE3-A5B7-50E9F49972BA}"/>
+    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13749" xr2:uid="{3956E45A-4E70-4CE3-A5B7-50E9F49972BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,42 +36,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+  <si>
+    <t>4X31R64405</t>
+  </si>
+  <si>
+    <t>4XF1K72399</t>
+  </si>
+  <si>
+    <t>13EJS01B00</t>
+  </si>
+  <si>
+    <t>63CFMAR1BR</t>
+  </si>
+  <si>
+    <t>4X30H56832</t>
+  </si>
+  <si>
+    <t>21NQA0K7BR</t>
+  </si>
+  <si>
+    <t>4Z91Q37956</t>
+  </si>
+  <si>
+    <t>4Y50R20863</t>
+  </si>
+  <si>
+    <t>4Y41R90027</t>
+  </si>
+  <si>
+    <t>4XD1P83425</t>
+  </si>
+  <si>
+    <t>ZC05</t>
+  </si>
+  <si>
+    <t>SI001</t>
+  </si>
   <si>
     <t>ZW06</t>
   </si>
   <si>
-    <t>21NQA07BBR</t>
-  </si>
-  <si>
-    <t>13E0S00400</t>
-  </si>
-  <si>
-    <t>7D6MNCM3WW</t>
-  </si>
-  <si>
-    <t>0B50559</t>
-  </si>
-  <si>
-    <t>4Z51L42650</t>
-  </si>
-  <si>
-    <t>21NQA0K6BR</t>
-  </si>
-  <si>
-    <t>7D76CTO1WW</t>
-  </si>
-  <si>
-    <t>ZC06</t>
-  </si>
-  <si>
-    <t>ZW03</t>
-  </si>
-  <si>
-    <t>ZW07</t>
-  </si>
-  <si>
-    <t>ZW04</t>
+    <t>ZC04</t>
+  </si>
+  <si>
+    <t>ZAGNG0301B</t>
   </si>
 </sst>
 </file>
@@ -107,8 +116,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,182 +453,197 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D67E4E-5C27-4C36-A3AD-A33C877510EE}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="1" max="2" width="12.77734375" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>5272804613</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1">
+        <v>5272601306</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>5272593676</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>5272594026</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>5272594026</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5272594026</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C1">
-        <v>201</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>5272804613</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5272595673</v>
+      </c>
+      <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>201</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>5272813554</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>5272813581</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>5272815155</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5272815187</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
       <c r="C6">
-        <v>150</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>5272815187</v>
+        <v>5272595667</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7">
-        <v>150</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>5272815360</v>
+        <v>5272595667</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>125</v>
-      </c>
-      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>5272595667</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>5272595667</v>
+      </c>
+      <c r="B10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>5272815362</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>126</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>5272815364</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
       <c r="C10">
-        <v>150</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>5272815364</v>
+        <v>5272595667</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>150</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>5272816410</v>
+        <v>5272595673</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>0</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>5272595673</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>5272595673</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>5272595673</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos\VALENware\VALENtiny\User version\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cevalogisticsoffice365-my.sharepoint.com/personal/victor_lima_santos_cevalogistics_com/Documents/Documentos/Conferencia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331FD19B-8A29-484E-944C-E90EA2172FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{6D74FF62-BE81-4620-9F71-C63D64A28BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE15E31F-2CB5-4B33-A7FE-5D7AAC3760F1}"/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13749" xr2:uid="{3956E45A-4E70-4CE3-A5B7-50E9F49972BA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{3956E45A-4E70-4CE3-A5B7-50E9F49972BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,51 +36,117 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
-  <si>
-    <t>4X31R64405</t>
-  </si>
-  <si>
-    <t>4XF1K72399</t>
-  </si>
-  <si>
-    <t>13EJS01B00</t>
-  </si>
-  <si>
-    <t>63CFMAR1BR</t>
-  </si>
-  <si>
-    <t>4X30H56832</t>
-  </si>
-  <si>
-    <t>21NQA0K7BR</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
+  <si>
+    <t>ZW06</t>
+  </si>
+  <si>
+    <t>0B50559</t>
+  </si>
+  <si>
+    <t>ZC06</t>
+  </si>
+  <si>
+    <t>ZW07</t>
+  </si>
+  <si>
+    <t>4P57A72671</t>
+  </si>
+  <si>
+    <t>ZW02</t>
+  </si>
+  <si>
+    <t>ZAC60078BR</t>
+  </si>
+  <si>
+    <t>ZW00</t>
+  </si>
+  <si>
+    <t>ZC04</t>
+  </si>
+  <si>
+    <t>13DXS00100</t>
+  </si>
+  <si>
+    <t>4Z11S13229</t>
+  </si>
+  <si>
+    <t>21M4S5HH00</t>
+  </si>
+  <si>
+    <t>ZC03</t>
+  </si>
+  <si>
+    <t>4Y41R64638</t>
+  </si>
+  <si>
+    <t>ZW01</t>
+  </si>
+  <si>
+    <t>21M4000RBO</t>
+  </si>
+  <si>
+    <t>ZW08</t>
+  </si>
+  <si>
+    <t>ZC02</t>
+  </si>
+  <si>
+    <t>21M4S5HJ00</t>
+  </si>
+  <si>
+    <t>61FAKIR1BR</t>
+  </si>
+  <si>
+    <t>ZC01</t>
+  </si>
+  <si>
+    <t>4XJ1M77973</t>
+  </si>
+  <si>
+    <t>13E20006BO</t>
+  </si>
+  <si>
+    <t>ZW09</t>
+  </si>
+  <si>
+    <t>4X30H56886</t>
+  </si>
+  <si>
+    <t>12LM0000BO</t>
+  </si>
+  <si>
+    <t>ZW05</t>
+  </si>
+  <si>
+    <t>4X31N50713</t>
+  </si>
+  <si>
+    <t>21FBSBWC1W</t>
+  </si>
+  <si>
+    <t>12V3S0NF1T</t>
+  </si>
+  <si>
+    <t>4XF1A19885</t>
+  </si>
+  <si>
+    <t>ZAEH0151BR</t>
+  </si>
+  <si>
+    <t>21KYS8WA00</t>
+  </si>
+  <si>
+    <t>4Y50R20863</t>
+  </si>
+  <si>
+    <t>4Y41R90027</t>
   </si>
   <si>
     <t>4Z91Q37956</t>
   </si>
   <si>
-    <t>4Y50R20863</t>
-  </si>
-  <si>
-    <t>4Y41R90027</t>
-  </si>
-  <si>
     <t>4XD1P83425</t>
-  </si>
-  <si>
-    <t>ZC05</t>
-  </si>
-  <si>
-    <t>SI001</t>
-  </si>
-  <si>
-    <t>ZW06</t>
-  </si>
-  <si>
-    <t>ZC04</t>
-  </si>
-  <si>
-    <t>ZAGNG0301B</t>
   </si>
 </sst>
 </file>
@@ -116,9 +182,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,197 +518,490 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D67E4E-5C27-4C36-A3AD-A33C877510EE}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.77734375" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+    <col min="1" max="2" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
-        <v>5272601306</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>5272906012</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>5272906030</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5272906682</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>190</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5272906682</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5272906682</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>190</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5272906710</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>190</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5272906710</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5272906710</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>190</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5272907278</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9">
+        <v>69</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5272907278</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
         <v>0</v>
       </c>
-      <c r="C1">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5272907870</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5272908111</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>5272908118</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>5272908192</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>5272908192</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>5272593676</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>5272594026</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>5272908223</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>5272908223</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>5272908653</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>5272908774</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>5272594026</v>
-      </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>5272908774</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
+        <v>42</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>5272908774</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21">
+        <v>42</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>5272908774</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22">
+        <v>42</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>5272909547</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>5272594026</v>
-      </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>5272909655</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>5272909672</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>5272909681</v>
+      </c>
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>5272909689</v>
+      </c>
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>5272909699</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>5272909762</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5272595673</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>5272909975</v>
+      </c>
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>5272909991</v>
+      </c>
+      <c r="B31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>5272910144</v>
+      </c>
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32">
         <v>5</v>
       </c>
-      <c r="C6">
-        <v>38</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5272595667</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>5272595667</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>5272595667</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>5272595667</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>5272595667</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>5272595673</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12">
-        <v>38</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>5272595673</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13">
-        <v>38</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>5272595673</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14">
-        <v>38</v>
-      </c>
-      <c r="D14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>5272595673</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15">
-        <v>38</v>
-      </c>
-      <c r="D15" t="s">
-        <v>11</v>
+      <c r="D32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>5272912954</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1607</v>
+      </c>
+      <c r="D33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>5272913029</v>
+      </c>
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cevalogisticsoffice365-my.sharepoint.com/personal/victor_lima_santos_cevalogistics_com/Documents/Documentos/Conferencia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{6D74FF62-BE81-4620-9F71-C63D64A28BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE15E31F-2CB5-4B33-A7FE-5D7AAC3760F1}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{6D74FF62-BE81-4620-9F71-C63D64A28BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB903468-2808-4D6E-BD3E-CA9F555EE748}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{3956E45A-4E70-4CE3-A5B7-50E9F49972BA}"/>
   </bookViews>
@@ -36,117 +36,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
-  <si>
-    <t>ZW06</t>
-  </si>
-  <si>
-    <t>0B50559</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>ZC06</t>
   </si>
   <si>
-    <t>ZW07</t>
-  </si>
-  <si>
-    <t>4P57A72671</t>
-  </si>
-  <si>
     <t>ZW02</t>
   </si>
   <si>
-    <t>ZAC60078BR</t>
-  </si>
-  <si>
     <t>ZW00</t>
   </si>
   <si>
-    <t>ZC04</t>
-  </si>
-  <si>
-    <t>13DXS00100</t>
-  </si>
-  <si>
-    <t>4Z11S13229</t>
-  </si>
-  <si>
-    <t>21M4S5HH00</t>
-  </si>
-  <si>
-    <t>ZC03</t>
-  </si>
-  <si>
-    <t>4Y41R64638</t>
-  </si>
-  <si>
-    <t>ZW01</t>
-  </si>
-  <si>
-    <t>21M4000RBO</t>
-  </si>
-  <si>
     <t>ZW08</t>
   </si>
   <si>
-    <t>ZC02</t>
-  </si>
-  <si>
-    <t>21M4S5HJ00</t>
-  </si>
-  <si>
-    <t>61FAKIR1BR</t>
-  </si>
-  <si>
-    <t>ZC01</t>
-  </si>
-  <si>
-    <t>4XJ1M77973</t>
-  </si>
-  <si>
-    <t>13E20006BO</t>
-  </si>
-  <si>
-    <t>ZW09</t>
-  </si>
-  <si>
-    <t>4X30H56886</t>
-  </si>
-  <si>
-    <t>12LM0000BO</t>
-  </si>
-  <si>
-    <t>ZW05</t>
-  </si>
-  <si>
-    <t>4X31N50713</t>
-  </si>
-  <si>
-    <t>21FBSBWC1W</t>
-  </si>
-  <si>
-    <t>12V3S0NF1T</t>
-  </si>
-  <si>
-    <t>4XF1A19885</t>
-  </si>
-  <si>
-    <t>ZAEH0151BR</t>
-  </si>
-  <si>
-    <t>21KYS8WA00</t>
-  </si>
-  <si>
-    <t>4Y50R20863</t>
-  </si>
-  <si>
     <t>4Y41R90027</t>
   </si>
   <si>
-    <t>4Z91Q37956</t>
-  </si>
-  <si>
     <t>4XD1P83425</t>
+  </si>
+  <si>
+    <t>4X40Y95214</t>
+  </si>
+  <si>
+    <t>21MDS2HH07</t>
+  </si>
+  <si>
+    <t>40AY0090BR</t>
+  </si>
+  <si>
+    <t>ZW04</t>
+  </si>
+  <si>
+    <t>4XE1B81916</t>
+  </si>
+  <si>
+    <t>4X31R64405</t>
+  </si>
+  <si>
+    <t>SM10Z35160</t>
+  </si>
+  <si>
+    <t>4X21S91185</t>
+  </si>
+  <si>
+    <t>4X31R64424</t>
   </si>
 </sst>
 </file>
@@ -518,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D67E4E-5C27-4C36-A3AD-A33C877510EE}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -530,478 +464,170 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>5272906012</v>
+        <v>5272964724</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>5272906030</v>
+        <v>5272964724</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>5272906682</v>
+        <v>5272964724</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>190</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>5272906682</v>
+        <v>5272964724</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
-      </c>
-      <c r="C4">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>5272906682</v>
+        <v>5272964724</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5272906710</v>
+        <v>5272964724</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5272906710</v>
+        <v>5272974618</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>5272906710</v>
+        <v>5272970458</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C8">
-        <v>190</v>
+        <v>91</v>
       </c>
       <c r="D8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>5272907278</v>
+        <v>5272973084</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="D9" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>5272907278</v>
+        <v>5272973072</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C10">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>5272907870</v>
+        <v>5272973070</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C11">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>5272908111</v>
+        <v>5272973068</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>5272908118</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>5272908192</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>5272908192</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>5272908223</v>
-      </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>5272908223</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17">
         <v>3</v>
-      </c>
-      <c r="D17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>5272908653</v>
-      </c>
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18">
-        <v>16</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>5272908774</v>
-      </c>
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19">
-        <v>42</v>
-      </c>
-      <c r="D19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>5272908774</v>
-      </c>
-      <c r="B20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20">
-        <v>42</v>
-      </c>
-      <c r="D20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>5272908774</v>
-      </c>
-      <c r="B21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21">
-        <v>42</v>
-      </c>
-      <c r="D21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>5272908774</v>
-      </c>
-      <c r="B22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22">
-        <v>42</v>
-      </c>
-      <c r="D22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>5272909547</v>
-      </c>
-      <c r="B23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23">
-        <v>5</v>
-      </c>
-      <c r="D23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>5272909655</v>
-      </c>
-      <c r="B24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>5272909672</v>
-      </c>
-      <c r="B25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25">
-        <v>6</v>
-      </c>
-      <c r="D25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>5272909681</v>
-      </c>
-      <c r="B26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>5272909689</v>
-      </c>
-      <c r="B27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>5272909699</v>
-      </c>
-      <c r="B28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>5272909762</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>5272909975</v>
-      </c>
-      <c r="B30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>5272909991</v>
-      </c>
-      <c r="B31" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>5272910144</v>
-      </c>
-      <c r="B32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32">
-        <v>5</v>
-      </c>
-      <c r="D32" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>5272912954</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>1607</v>
-      </c>
-      <c r="D33" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>5272913029</v>
-      </c>
-      <c r="B34" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cevalogisticsoffice365-my.sharepoint.com/personal/victor_lima_santos_cevalogistics_com/Documents/Documentos/Conferencia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{6D74FF62-BE81-4620-9F71-C63D64A28BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB903468-2808-4D6E-BD3E-CA9F555EE748}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{6D74FF62-BE81-4620-9F71-C63D64A28BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F99B8057-E033-40AB-A6AD-1FCCBA5BBFDB}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{3956E45A-4E70-4CE3-A5B7-50E9F49972BA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3956E45A-4E70-4CE3-A5B7-50E9F49972BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,51 +36,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
-  <si>
-    <t>ZC06</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>ZW02</t>
   </si>
   <si>
-    <t>ZW00</t>
-  </si>
-  <si>
-    <t>ZW08</t>
-  </si>
-  <si>
-    <t>4Y41R90027</t>
-  </si>
-  <si>
-    <t>4XD1P83425</t>
-  </si>
-  <si>
-    <t>4X40Y95214</t>
-  </si>
-  <si>
-    <t>21MDS2HH07</t>
-  </si>
-  <si>
     <t>40AY0090BR</t>
   </si>
   <si>
-    <t>ZW04</t>
-  </si>
-  <si>
-    <t>4XE1B81916</t>
-  </si>
-  <si>
-    <t>4X31R64405</t>
-  </si>
-  <si>
-    <t>SM10Z35160</t>
-  </si>
-  <si>
-    <t>4X21S91185</t>
-  </si>
-  <si>
-    <t>4X31R64424</t>
+    <t>13DJ000ABO</t>
+  </si>
+  <si>
+    <t>ZW06</t>
+  </si>
+  <si>
+    <t>13DJ000CBO</t>
+  </si>
+  <si>
+    <t>63CFMAR1BR</t>
+  </si>
+  <si>
+    <t>ZC05</t>
+  </si>
+  <si>
+    <t>ZW07</t>
+  </si>
+  <si>
+    <t>83GL000VBR</t>
+  </si>
+  <si>
+    <t>21M4000LBO</t>
+  </si>
+  <si>
+    <t>ZW05</t>
+  </si>
+  <si>
+    <t>ZAC60078BR</t>
   </si>
 </sst>
 </file>
@@ -452,181 +443,211 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D67E4E-5C27-4C36-A3AD-A33C877510EE}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="1" max="2" width="12.7265625" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1">
-        <v>5272964724</v>
+        <v>500229976</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>500234586</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>5273105814</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="C1">
-        <v>32</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>5272964724</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>5272964724</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>78</v>
-      </c>
-      <c r="D3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>5272964724</v>
+        <v>5273105807</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>5272964724</v>
+        <v>5273107779</v>
       </c>
       <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5">
         <v>10</v>
       </c>
-      <c r="C5">
-        <v>179</v>
-      </c>
       <c r="D5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>5272964724</v>
+        <v>5273107779</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>179</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>5272974618</v>
+        <v>5273107749</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>5273105816</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>5273108046</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>5272970458</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8">
-        <v>91</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>5272973084</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>112</v>
-      </c>
-      <c r="D9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>5272973072</v>
+        <v>5273107815</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>5273107772</v>
+      </c>
+      <c r="B11" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>5272973070</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>5273107772</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>5272973068</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12">
-        <v>9</v>
-      </c>
       <c r="D12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>5273107836</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>5273107616</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
         <v>3</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cevalogisticsoffice365-my.sharepoint.com/personal/victor_lima_santos_cevalogistics_com/Documents/Documentos/Conferencia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{6D74FF62-BE81-4620-9F71-C63D64A28BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F99B8057-E033-40AB-A6AD-1FCCBA5BBFDB}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{6D74FF62-BE81-4620-9F71-C63D64A28BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{627FE53C-C801-42CA-97B6-9180C04D98FF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3956E45A-4E70-4CE3-A5B7-50E9F49972BA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{3956E45A-4E70-4CE3-A5B7-50E9F49972BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t>ZW02</t>
   </si>
@@ -443,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D67E4E-5C27-4C36-A3AD-A33C877510EE}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -561,7 +561,7 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
@@ -569,44 +569,44 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>5273108046</v>
+        <v>5273105816</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>5273107815</v>
+        <v>5273108046</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>5273107772</v>
+        <v>5273107815</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -614,7 +614,7 @@
         <v>5273107772</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -625,7 +625,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>5273107836</v>
+        <v>5273107772</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -634,20 +634,34 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
+        <v>5273107836</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15">
         <v>5273107616</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>11</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>4</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>3</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cevalogisticsoffice365-my.sharepoint.com/personal/victor_lima_santos_cevalogistics_com/Documents/Documentos/Conferencia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{6D74FF62-BE81-4620-9F71-C63D64A28BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{627FE53C-C801-42CA-97B6-9180C04D98FF}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{6D74FF62-BE81-4620-9F71-C63D64A28BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB903468-2808-4D6E-BD3E-CA9F555EE748}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{3956E45A-4E70-4CE3-A5B7-50E9F49972BA}"/>
   </bookViews>
@@ -36,42 +36,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+  <si>
+    <t>ZC06</t>
+  </si>
   <si>
     <t>ZW02</t>
   </si>
   <si>
+    <t>ZW00</t>
+  </si>
+  <si>
+    <t>ZW08</t>
+  </si>
+  <si>
+    <t>4Y41R90027</t>
+  </si>
+  <si>
+    <t>4XD1P83425</t>
+  </si>
+  <si>
+    <t>4X40Y95214</t>
+  </si>
+  <si>
+    <t>21MDS2HH07</t>
+  </si>
+  <si>
     <t>40AY0090BR</t>
   </si>
   <si>
-    <t>13DJ000ABO</t>
-  </si>
-  <si>
-    <t>ZW06</t>
-  </si>
-  <si>
-    <t>13DJ000CBO</t>
-  </si>
-  <si>
-    <t>63CFMAR1BR</t>
-  </si>
-  <si>
-    <t>ZC05</t>
-  </si>
-  <si>
-    <t>ZW07</t>
-  </si>
-  <si>
-    <t>83GL000VBR</t>
-  </si>
-  <si>
-    <t>21M4000LBO</t>
-  </si>
-  <si>
-    <t>ZW05</t>
-  </si>
-  <si>
-    <t>ZAC60078BR</t>
+    <t>ZW04</t>
+  </si>
+  <si>
+    <t>4XE1B81916</t>
+  </si>
+  <si>
+    <t>4X31R64405</t>
+  </si>
+  <si>
+    <t>SM10Z35160</t>
+  </si>
+  <si>
+    <t>4X21S91185</t>
+  </si>
+  <si>
+    <t>4X31R64424</t>
   </si>
 </sst>
 </file>
@@ -443,225 +452,181 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D67E4E-5C27-4C36-A3AD-A33C877510EE}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.7265625" customWidth="1"/>
-    <col min="4" max="4" width="12.7265625" customWidth="1"/>
+    <col min="1" max="2" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>500229976</v>
+        <v>5272964724</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C1">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>500234586</v>
+        <v>5272964724</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>5273105814</v>
+        <v>5272964724</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>5273105807</v>
+        <v>5272964724</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>5273107779</v>
+        <v>5272964724</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>179</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5273107779</v>
+        <v>5272964724</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>179</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5273107749</v>
+        <v>5272974618</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>5273105816</v>
+        <v>5272970458</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>5273105816</v>
+        <v>5272973084</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>112</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>5273108046</v>
+        <v>5272973072</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
         <v>1</v>
       </c>
-      <c r="D10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>5273107815</v>
+        <v>5272973070</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>5273107772</v>
+        <v>5272973068</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>5273107772</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>5273107836</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>5273107616</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
         <v>3</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -451,187 +451,159 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D67E4E-5C27-4C36-A3AD-A33C877510EE}">
-  <dimension ref="A1:D12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>5272964724</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1">
-        <v>32</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>5272964724</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>5272964724</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>78</v>
-      </c>
-      <c r="D3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>5272964724</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>5272964724</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>179</v>
-      </c>
-      <c r="D5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5272964724</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>179</v>
-      </c>
-      <c r="D6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5272974618</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>5272970458</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8">
-        <v>91</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>5272973084</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>112</v>
-      </c>
-      <c r="D9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>5272973072</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>5272973070</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>5272973068</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
+<ns0:worksheet xmlns:ns0="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ns1="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:ns2="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:ns3="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:ns4="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ns1:Ignorable="x14ac xr xr2 xr3" ns2:uid="{A5D67E4E-5C27-4C36-A3AD-A33C877510EE}">
+  <ns0:dimension ref="A1:D11"/>
+  <ns0:sheetViews>
+    <ns0:sheetView tabSelected="1" workbookViewId="0"/>
+  </ns0:sheetViews>
+  <ns0:sheetFormatPr defaultRowHeight="15" ns3:dyDescent="0.25"/>
+  <ns0:cols>
+    <ns0:col min="1" max="2" width="12.7109375" customWidth="1"/>
+    <ns0:col min="4" max="4" width="12.7109375" customWidth="1"/>
+  </ns0:cols>
+  <ns0:sheetData>
+    <ns0:row r="1" spans="1:4" ns3:dyDescent="0.25">
+      <ns0:c r="A1">
+        <ns0:v>5272964724</ns0:v>
+      </ns0:c>
+      <ns0:c r="B1" t="s">
+        <ns0:v>6</ns0:v>
+      </ns0:c>
+      <ns0:c r="C1">
+        <ns0:v>32</ns0:v>
+      </ns0:c>
+      <ns0:c r="D1" t="s">
+        <ns0:v>0</ns0:v>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="2" spans="1:4" ns3:dyDescent="0.25">
+      <ns0:c r="A2">
+        <ns0:v>5272964724</ns0:v>
+      </ns0:c>
+      <ns0:c r="B2" t="s">
+        <ns0:v>7</ns0:v>
+      </ns0:c>
+      <ns0:c r="C2">
+        <ns0:v>9</ns0:v>
+      </ns0:c>
+      <ns0:c r="D2" t="s">
+        <ns0:v>0</ns0:v>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="3" spans="1:4" ns3:dyDescent="0.25">
+      <ns0:c r="A3">
+        <ns0:v>5272964724</ns0:v>
+      </ns0:c>
+      <ns0:c r="B3" t="s">
+        <ns0:v>8</ns0:v>
+      </ns0:c>
+      <ns0:c r="C3">
+        <ns0:v>78</ns0:v>
+      </ns0:c>
+      <ns0:c r="D3" t="s">
+        <ns0:v>0</ns0:v>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="4" spans="1:4" ns3:dyDescent="0.25">
+      <ns0:c r="A4">
+        <ns0:v>5272964724</ns0:v>
+      </ns0:c>
+      <ns0:c r="B4" t="s">
+        <ns0:v>8</ns0:v>
+      </ns0:c>
+      <ns0:c r="C4">
+        <ns0:v>1</ns0:v>
+      </ns0:c>
+      <ns0:c r="D4" t="s">
+        <ns0:v>9</ns0:v>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="5" spans="1:4" ns3:dyDescent="0.25">
+      <ns0:c r="A5">
+        <ns0:v>5272964724</ns0:v>
+      </ns0:c>
+      <ns0:c r="B5" t="s">
+        <ns0:v>10</ns0:v>
+      </ns0:c>
+      <ns0:c r="C5">
+        <ns0:v>179</ns0:v>
+      </ns0:c>
+      <ns0:c r="D5" t="s">
+        <ns0:v>0</ns0:v>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="6" spans="1:4" ns3:dyDescent="0.25">
+      <ns0:c r="A6">
+        <ns0:v>5272964724</ns0:v>
+      </ns0:c>
+      <ns0:c r="B6" t="s">
+        <ns0:v>11</ns0:v>
+      </ns0:c>
+      <ns0:c r="C6">
+        <ns0:v>179</ns0:v>
+      </ns0:c>
+      <ns0:c r="D6" t="s">
+        <ns0:v>0</ns0:v>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="7" spans="1:4" ns3:dyDescent="0.25">
+      <ns0:c r="A7">
+        <ns0:v>5272974618</ns0:v>
+      </ns0:c>
+      <ns0:c r="B7" t="s">
+        <ns0:v>5</ns0:v>
+      </ns0:c>
+      <ns0:c r="C7">
+        <ns0:v>1</ns0:v>
+      </ns0:c>
+      <ns0:c r="D7" t="s">
+        <ns0:v>3</ns0:v>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="8" spans="1:4" ns3:dyDescent="0.25">
+      <ns0:c r="A8">
+        <ns0:v>5272970458</ns0:v>
+      </ns0:c>
+      <ns0:c r="B8" t="s">
+        <ns0:v>12</ns0:v>
+      </ns0:c>
+      <ns0:c r="C8">
+        <ns0:v>91</ns0:v>
+      </ns0:c>
+      <ns0:c r="D8" t="s">
+        <ns0:v>3</ns0:v>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="9" spans="1:4" ns3:dyDescent="0.25">
+      <ns0:c r="A9">
+        <ns0:v>5272973084</ns0:v>
+      </ns0:c>
+      <ns0:c r="B9" t="s">
+        <ns0:v>4</ns0:v>
+      </ns0:c>
+      <ns0:c r="C9">
+        <ns0:v>112</ns0:v>
+      </ns0:c>
+      <ns0:c r="D9" t="s">
+        <ns0:v>0</ns0:v>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="11" spans="1:4" ns3:dyDescent="0.25">
+      <ns0:c r="A11">
+        <ns0:v>5272973070</ns0:v>
+      </ns0:c>
+      <ns0:c r="B11" t="s">
+        <ns0:v>14</ns0:v>
+      </ns0:c>
+      <ns0:c r="C11">
+        <ns0:v>2</ns0:v>
+      </ns0:c>
+      <ns0:c r="D11" t="s">
+        <ns0:v>2</ns0:v>
+      </ns0:c>
+    </ns0:row>
+  </ns0:sheetData>
+  <ns0:pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <ns0:pageSetup paperSize="9" orientation="portrait" ns4:id="rId1"/>
+</ns0:worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -451,159 +451,187 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<ns0:worksheet xmlns:ns0="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ns1="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:ns2="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:ns3="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:ns4="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ns1:Ignorable="x14ac xr xr2 xr3" ns2:uid="{A5D67E4E-5C27-4C36-A3AD-A33C877510EE}">
-  <ns0:dimension ref="A1:D11"/>
-  <ns0:sheetViews>
-    <ns0:sheetView tabSelected="1" workbookViewId="0"/>
-  </ns0:sheetViews>
-  <ns0:sheetFormatPr defaultRowHeight="15" ns3:dyDescent="0.25"/>
-  <ns0:cols>
-    <ns0:col min="1" max="2" width="12.7109375" customWidth="1"/>
-    <ns0:col min="4" max="4" width="12.7109375" customWidth="1"/>
-  </ns0:cols>
-  <ns0:sheetData>
-    <ns0:row r="1" spans="1:4" ns3:dyDescent="0.25">
-      <ns0:c r="A1">
-        <ns0:v>5272964724</ns0:v>
-      </ns0:c>
-      <ns0:c r="B1" t="s">
-        <ns0:v>6</ns0:v>
-      </ns0:c>
-      <ns0:c r="C1">
-        <ns0:v>32</ns0:v>
-      </ns0:c>
-      <ns0:c r="D1" t="s">
-        <ns0:v>0</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="2" spans="1:4" ns3:dyDescent="0.25">
-      <ns0:c r="A2">
-        <ns0:v>5272964724</ns0:v>
-      </ns0:c>
-      <ns0:c r="B2" t="s">
-        <ns0:v>7</ns0:v>
-      </ns0:c>
-      <ns0:c r="C2">
-        <ns0:v>9</ns0:v>
-      </ns0:c>
-      <ns0:c r="D2" t="s">
-        <ns0:v>0</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="3" spans="1:4" ns3:dyDescent="0.25">
-      <ns0:c r="A3">
-        <ns0:v>5272964724</ns0:v>
-      </ns0:c>
-      <ns0:c r="B3" t="s">
-        <ns0:v>8</ns0:v>
-      </ns0:c>
-      <ns0:c r="C3">
-        <ns0:v>78</ns0:v>
-      </ns0:c>
-      <ns0:c r="D3" t="s">
-        <ns0:v>0</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="4" spans="1:4" ns3:dyDescent="0.25">
-      <ns0:c r="A4">
-        <ns0:v>5272964724</ns0:v>
-      </ns0:c>
-      <ns0:c r="B4" t="s">
-        <ns0:v>8</ns0:v>
-      </ns0:c>
-      <ns0:c r="C4">
-        <ns0:v>1</ns0:v>
-      </ns0:c>
-      <ns0:c r="D4" t="s">
-        <ns0:v>9</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="5" spans="1:4" ns3:dyDescent="0.25">
-      <ns0:c r="A5">
-        <ns0:v>5272964724</ns0:v>
-      </ns0:c>
-      <ns0:c r="B5" t="s">
-        <ns0:v>10</ns0:v>
-      </ns0:c>
-      <ns0:c r="C5">
-        <ns0:v>179</ns0:v>
-      </ns0:c>
-      <ns0:c r="D5" t="s">
-        <ns0:v>0</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="6" spans="1:4" ns3:dyDescent="0.25">
-      <ns0:c r="A6">
-        <ns0:v>5272964724</ns0:v>
-      </ns0:c>
-      <ns0:c r="B6" t="s">
-        <ns0:v>11</ns0:v>
-      </ns0:c>
-      <ns0:c r="C6">
-        <ns0:v>179</ns0:v>
-      </ns0:c>
-      <ns0:c r="D6" t="s">
-        <ns0:v>0</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="7" spans="1:4" ns3:dyDescent="0.25">
-      <ns0:c r="A7">
-        <ns0:v>5272974618</ns0:v>
-      </ns0:c>
-      <ns0:c r="B7" t="s">
-        <ns0:v>5</ns0:v>
-      </ns0:c>
-      <ns0:c r="C7">
-        <ns0:v>1</ns0:v>
-      </ns0:c>
-      <ns0:c r="D7" t="s">
-        <ns0:v>3</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="8" spans="1:4" ns3:dyDescent="0.25">
-      <ns0:c r="A8">
-        <ns0:v>5272970458</ns0:v>
-      </ns0:c>
-      <ns0:c r="B8" t="s">
-        <ns0:v>12</ns0:v>
-      </ns0:c>
-      <ns0:c r="C8">
-        <ns0:v>91</ns0:v>
-      </ns0:c>
-      <ns0:c r="D8" t="s">
-        <ns0:v>3</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="9" spans="1:4" ns3:dyDescent="0.25">
-      <ns0:c r="A9">
-        <ns0:v>5272973084</ns0:v>
-      </ns0:c>
-      <ns0:c r="B9" t="s">
-        <ns0:v>4</ns0:v>
-      </ns0:c>
-      <ns0:c r="C9">
-        <ns0:v>112</ns0:v>
-      </ns0:c>
-      <ns0:c r="D9" t="s">
-        <ns0:v>0</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="11" spans="1:4" ns3:dyDescent="0.25">
-      <ns0:c r="A11">
-        <ns0:v>5272973070</ns0:v>
-      </ns0:c>
-      <ns0:c r="B11" t="s">
-        <ns0:v>14</ns0:v>
-      </ns0:c>
-      <ns0:c r="C11">
-        <ns0:v>2</ns0:v>
-      </ns0:c>
-      <ns0:c r="D11" t="s">
-        <ns0:v>2</ns0:v>
-      </ns0:c>
-    </ns0:row>
-  </ns0:sheetData>
-  <ns0:pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <ns0:pageSetup paperSize="9" orientation="portrait" ns4:id="rId1"/>
-</ns0:worksheet>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D67E4E-5C27-4C36-A3AD-A33C877510EE}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>5272964724</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>5272964724</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5272964724</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>78</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5272964724</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5272964724</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>179</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5272964724</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>179</v>
+      </c>
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5272974618</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5272970458</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>91</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5272973084</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>112</v>
+      </c>
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5272973072</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5272973070</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5272973068</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -1,104 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cevalogisticsoffice365-my.sharepoint.com/personal/victor_lima_santos_cevalogistics_com/Documents/Documentos/Conferencia/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{6D74FF62-BE81-4620-9F71-C63D64A28BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB903468-2808-4D6E-BD3E-CA9F555EE748}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{3956E45A-4E70-4CE3-A5B7-50E9F49972BA}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
-  <si>
-    <t>ZC06</t>
-  </si>
-  <si>
-    <t>ZW02</t>
-  </si>
-  <si>
-    <t>ZW00</t>
-  </si>
-  <si>
-    <t>ZW08</t>
-  </si>
-  <si>
-    <t>4Y41R90027</t>
-  </si>
-  <si>
-    <t>4XD1P83425</t>
-  </si>
-  <si>
-    <t>4X40Y95214</t>
-  </si>
-  <si>
-    <t>21MDS2HH07</t>
-  </si>
-  <si>
-    <t>40AY0090BR</t>
-  </si>
-  <si>
-    <t>ZW04</t>
-  </si>
-  <si>
-    <t>4XE1B81916</t>
-  </si>
-  <si>
-    <t>4X31R64405</t>
-  </si>
-  <si>
-    <t>SM10Z35160</t>
-  </si>
-  <si>
-    <t>4X21S91185</t>
-  </si>
-  <si>
-    <t>4X31R64424</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -117,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -451,187 +439,205 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D67E4E-5C27-4C36-A3AD-A33C877510EE}">
-  <dimension ref="A1:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col width="12.7109375" customWidth="1" min="1" max="2"/>
+    <col width="12.7109375" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1">
+      <c r="A1" t="n">
         <v>5272964724</v>
       </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>4X40Y95214</t>
+        </is>
+      </c>
+      <c r="C1" t="n">
         <v>32</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>ZC06</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>5272964724</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>21MDS2HH07</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ZC06</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>5272964724</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>40AY0090BR</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>78</v>
       </c>
-      <c r="D3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ZC06</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>5272964724</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>40AY0090BR</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ZW04</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>5272964724</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>4XE1B81916</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>179</v>
       </c>
-      <c r="D5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ZC06</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>5272964724</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>4X31R64405</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>179</v>
       </c>
-      <c r="D6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ZC06</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>5272974618</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>4XD1P83425</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ZW08</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
         <v>5272970458</v>
       </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>SM10Z35160</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>91</v>
       </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ZW08</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
         <v>5272973084</v>
       </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>4Y41R90027</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
         <v>112</v>
       </c>
-      <c r="D9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>5272973072</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ZC06</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
         <v>5272973070</v>
       </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>4X31R64424</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>2</v>
       </c>
-      <c r="D11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>5272973068</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>3</v>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ZW00</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -1,33 +1,125 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VALENtiny\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FA3F3B-3085-41AB-A688-0244E7E7DA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+  <si>
+    <t>ZC06</t>
+  </si>
+  <si>
+    <t>ZW08</t>
+  </si>
+  <si>
+    <t>12LM0007BO</t>
+  </si>
+  <si>
+    <t>ZC05</t>
+  </si>
+  <si>
+    <t>83GK000UBR</t>
+  </si>
+  <si>
+    <t>82UM0009BR</t>
+  </si>
+  <si>
+    <t>63B0MAR1BR</t>
+  </si>
+  <si>
+    <t>4X31R64458</t>
+  </si>
+  <si>
+    <t>83GL0012BR</t>
+  </si>
+  <si>
+    <t>21M8001XBO</t>
+  </si>
+  <si>
+    <t>4X97A88800</t>
+  </si>
+  <si>
+    <t>ZW03</t>
+  </si>
+  <si>
+    <t>4P57A89298</t>
+  </si>
+  <si>
+    <t>4X97A88805</t>
+  </si>
+  <si>
+    <t>4F17A93855</t>
+  </si>
+  <si>
+    <t>4X97A88803</t>
+  </si>
+  <si>
+    <t>4C57A88822</t>
+  </si>
+  <si>
+    <t>4X77A85321</t>
+  </si>
+  <si>
+    <t>4XB7A86452</t>
+  </si>
+  <si>
+    <t>4X97A88802</t>
+  </si>
+  <si>
+    <t>ZW02</t>
+  </si>
+  <si>
+    <t>4B27A88814</t>
+  </si>
+  <si>
+    <t>21MM0028BO</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,80 +138,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -439,205 +472,287 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="12.7109375" customWidth="1" min="1" max="2"/>
-    <col width="12.7109375" customWidth="1" min="4" max="4"/>
+    <col min="1" max="2" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
-        <v>5272964724</v>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>4X40Y95214</t>
-        </is>
-      </c>
-      <c r="C1" t="n">
-        <v>32</v>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>ZC06</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>5272964724</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>21MDS2HH07</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>5274177559</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>5274177559</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5274179435</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
         <v>9</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>ZC06</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>5272964724</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>40AY0090BR</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>78</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>ZC06</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>5272964724</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>40AY0090BR</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>ZW04</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>5272964724</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>4XE1B81916</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>179</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>ZC06</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5272964724</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>4X31R64405</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>179</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ZC06</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5272974618</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>4XD1P83425</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ZW08</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5272970458</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>SM10Z35160</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>91</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>ZW08</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>5272973084</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>4Y41R90027</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>112</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>ZC06</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>5272973070</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>4X31R64424</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>2</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ZW00</t>
-        </is>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5274174914</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5274179604</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5274179604</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5274179950</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5274178763</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5274178763</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5274178672</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5274178672</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5274178672</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>5274178672</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>5274178672</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>5274178672</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>5274178672</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>5274178672</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>5274174738</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>5274174738</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>